--- a/Excel-Berechnungen-24-05-05.xlsx
+++ b/Excel-Berechnungen-24-05-05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapi-\Documents\angewandtes-Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D3AC73-72FB-48D5-B2AA-5658954975B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDCF64B-68ED-4B80-9A56-CDE6C1C236B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="446" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="446" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Angewandte_PsychologiePre" sheetId="1" r:id="rId1"/>
@@ -595,10 +595,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -619,7 +620,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -662,8 +663,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -671,11 +678,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,11 +708,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1034,30 +1067,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW35"/>
+  <dimension ref="A1:CW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" hidden="1" customWidth="1"/>
-    <col min="2" max="4" width="20" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="8" customWidth="1"/>
     <col min="11" max="15" width="8" hidden="1" customWidth="1"/>
     <col min="16" max="83" width="8" customWidth="1"/>
-    <col min="84" max="92" width="5" customWidth="1"/>
+    <col min="84" max="84" width="5.54296875" customWidth="1"/>
+    <col min="85" max="92" width="5" customWidth="1"/>
     <col min="93" max="94" width="20" customWidth="1"/>
     <col min="95" max="101" width="8" customWidth="1"/>
     <col min="102" max="1041" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="13">
+    <row r="1" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1341,7 @@
       <c r="CM1" t="s">
         <v>73</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="27" t="s">
         <v>74</v>
       </c>
       <c r="CO1" t="s">
@@ -1339,7 +1372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:101" ht="13">
+    <row r="2" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1599,7 +1632,7 @@
       <c r="CM2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="CN2" s="1" t="s">
+      <c r="CN2" s="28" t="s">
         <v>158</v>
       </c>
       <c r="CO2" s="3" t="s">
@@ -1630,7 +1663,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:101" ht="13">
+    <row r="3" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>56</v>
       </c>
@@ -1896,7 +1929,7 @@
       <c r="CM3" s="1">
         <v>65</v>
       </c>
-      <c r="CN3" s="1">
+      <c r="CN3" s="28">
         <v>456</v>
       </c>
       <c r="CO3" s="3"/>
@@ -1925,7 +1958,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:101" ht="13">
+    <row r="4" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>57</v>
       </c>
@@ -2189,7 +2222,7 @@
       <c r="CM4" s="1">
         <v>89</v>
       </c>
-      <c r="CN4" s="1">
+      <c r="CN4" s="28">
         <v>579</v>
       </c>
       <c r="CO4" s="3"/>
@@ -2218,302 +2251,302 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:101" ht="13">
-      <c r="A5" s="1">
+    <row r="5" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
         <v>62</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="20">
         <v>45411.817418981002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="18">
         <v>25</v>
       </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>6</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18">
+        <v>2</v>
+      </c>
+      <c r="L5" s="21">
         <v>40</v>
       </c>
-      <c r="M5" s="1">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>6</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>5</v>
-      </c>
-      <c r="S5" s="1">
-        <v>2</v>
-      </c>
-      <c r="T5" s="1">
-        <v>5</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
+      <c r="M5" s="18">
+        <v>4</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1</v>
+      </c>
+      <c r="O5" s="18">
+        <v>6</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18">
+        <v>2</v>
+      </c>
+      <c r="R5" s="18">
+        <v>5</v>
+      </c>
+      <c r="S5" s="18">
+        <v>2</v>
+      </c>
+      <c r="T5" s="18">
+        <v>5</v>
+      </c>
+      <c r="U5" s="18">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="W5" s="18">
+        <v>1</v>
+      </c>
+      <c r="X5" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="1">
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="9">
+      <c r="AD5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="18">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>7</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY5" s="8">
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>5</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>7</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>5</v>
+      </c>
+      <c r="AS5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>5</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>6</v>
+      </c>
+      <c r="AY5" s="22">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>7</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>3</v>
-      </c>
-      <c r="BD5" s="13">
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18">
+        <v>6</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>7</v>
+      </c>
+      <c r="BC5" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD5" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BE5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="13">
+      <c r="BE5" s="18">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="22">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="13">
+      <c r="BH5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="22">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BJ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="BK5" s="8">
+      <c r="BJ5" s="18">
+        <v>3</v>
+      </c>
+      <c r="BK5" s="22">
         <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1">
-        <v>5</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="8">
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18">
+        <v>5</v>
+      </c>
+      <c r="BN5" s="18">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="18">
+        <v>4</v>
+      </c>
+      <c r="BQ5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="18">
+        <v>4</v>
+      </c>
+      <c r="BS5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BT5" s="22">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="BU5" s="1"/>
-      <c r="BV5" s="1">
-        <v>5</v>
-      </c>
-      <c r="BW5" s="1">
-        <v>6</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>3</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB5" s="1">
-        <v>7</v>
-      </c>
-      <c r="CC5" s="8">
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18">
+        <v>5</v>
+      </c>
+      <c r="BW5" s="18">
+        <v>6</v>
+      </c>
+      <c r="BX5" s="18">
+        <v>3</v>
+      </c>
+      <c r="BY5" s="18">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="18">
+        <v>6</v>
+      </c>
+      <c r="CA5" s="18">
+        <v>5</v>
+      </c>
+      <c r="CB5" s="18">
+        <v>7</v>
+      </c>
+      <c r="CC5" s="22">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="CD5" s="1"/>
-      <c r="CE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF5" s="1">
+      <c r="CD5" s="18"/>
+      <c r="CE5" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="18">
         <v>13</v>
       </c>
-      <c r="CG5" s="1">
+      <c r="CG5" s="18">
         <v>42</v>
       </c>
-      <c r="CH5" s="1">
+      <c r="CH5" s="18">
         <v>92</v>
       </c>
-      <c r="CI5" s="1">
+      <c r="CI5" s="18">
         <v>37</v>
       </c>
-      <c r="CJ5" s="1">
+      <c r="CJ5" s="18">
         <v>36</v>
       </c>
-      <c r="CK5" s="1">
+      <c r="CK5" s="18">
         <v>20</v>
       </c>
-      <c r="CL5" s="1">
+      <c r="CL5" s="18">
         <v>26</v>
       </c>
-      <c r="CM5" s="1">
+      <c r="CM5" s="18">
         <v>51</v>
       </c>
-      <c r="CN5" s="1">
+      <c r="CN5" s="28">
         <v>317</v>
       </c>
-      <c r="CO5" s="3"/>
-      <c r="CP5" s="3">
+      <c r="CO5" s="20"/>
+      <c r="CP5" s="20">
         <v>45411.821087962999</v>
       </c>
-      <c r="CQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR5" s="1">
+      <c r="CQ5" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="18">
         <v>0</v>
       </c>
-      <c r="CS5" s="1">
+      <c r="CS5" s="18">
         <v>8</v>
       </c>
-      <c r="CT5" s="1">
+      <c r="CT5" s="18">
         <v>8</v>
       </c>
-      <c r="CU5" s="1">
+      <c r="CU5" s="18">
         <v>0</v>
       </c>
-      <c r="CV5" s="1">
+      <c r="CV5" s="18">
         <v>0</v>
       </c>
-      <c r="CW5" s="4">
+      <c r="CW5" s="21">
         <v>1.28</v>
       </c>
     </row>
-    <row r="6" spans="1:101" ht="13">
+    <row r="6" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>63</v>
       </c>
@@ -2779,7 +2812,7 @@
       <c r="CM6" s="1">
         <v>43</v>
       </c>
-      <c r="CN6" s="1">
+      <c r="CN6" s="28">
         <v>478</v>
       </c>
       <c r="CO6" s="3"/>
@@ -2808,7 +2841,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:101" ht="13">
+    <row r="7" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>65</v>
       </c>
@@ -3074,7 +3107,7 @@
       <c r="CM7" s="1">
         <v>40</v>
       </c>
-      <c r="CN7" s="1">
+      <c r="CN7" s="28">
         <v>290</v>
       </c>
       <c r="CO7" s="3"/>
@@ -3103,7 +3136,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="8" spans="1:101" ht="13">
+    <row r="8" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>68</v>
       </c>
@@ -3369,7 +3402,7 @@
       <c r="CM8" s="1">
         <v>56</v>
       </c>
-      <c r="CN8" s="1">
+      <c r="CN8" s="28">
         <v>443</v>
       </c>
       <c r="CO8" s="3"/>
@@ -3398,7 +3431,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="9" spans="1:101" ht="13">
+    <row r="9" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -3664,7 +3697,7 @@
       <c r="CM9" s="1">
         <v>53</v>
       </c>
-      <c r="CN9" s="1">
+      <c r="CN9" s="28">
         <v>295</v>
       </c>
       <c r="CO9" s="3"/>
@@ -3693,7 +3726,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="10" spans="1:101" ht="13">
+    <row r="10" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>71</v>
       </c>
@@ -3959,7 +3992,7 @@
       <c r="CM10" s="1">
         <v>46</v>
       </c>
-      <c r="CN10" s="1">
+      <c r="CN10" s="28">
         <v>435</v>
       </c>
       <c r="CO10" s="3"/>
@@ -3988,7 +4021,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="11" spans="1:101" ht="13">
+    <row r="11" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>72</v>
       </c>
@@ -4254,7 +4287,7 @@
       <c r="CM11" s="1">
         <v>44</v>
       </c>
-      <c r="CN11" s="1">
+      <c r="CN11" s="28">
         <v>416</v>
       </c>
       <c r="CO11" s="3"/>
@@ -4283,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:101" ht="13">
+    <row r="12" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>73</v>
       </c>
@@ -4549,7 +4582,7 @@
       <c r="CM12" s="1">
         <v>54</v>
       </c>
-      <c r="CN12" s="1">
+      <c r="CN12" s="28">
         <v>588</v>
       </c>
       <c r="CO12" s="3"/>
@@ -4578,7 +4611,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="13" spans="1:101" ht="13">
+    <row r="13" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>74</v>
       </c>
@@ -4844,7 +4877,7 @@
       <c r="CM13" s="1">
         <v>42</v>
       </c>
-      <c r="CN13" s="1">
+      <c r="CN13" s="28">
         <v>465</v>
       </c>
       <c r="CO13" s="3"/>
@@ -4873,597 +4906,597 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="14" spans="1:101" ht="13">
-      <c r="A14" s="1">
+    <row r="14" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>75</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="20">
         <v>45412.850601851998</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="18">
         <v>26</v>
       </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1">
-        <v>3</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18">
+        <v>6</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="21">
         <v>15</v>
       </c>
-      <c r="M14" s="1">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1">
-        <v>2</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y14" s="9">
+      <c r="M14" s="18">
+        <v>2</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18">
+        <v>1</v>
+      </c>
+      <c r="R14" s="18">
+        <v>1</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T14" s="18">
+        <v>1</v>
+      </c>
+      <c r="U14" s="18">
+        <v>2</v>
+      </c>
+      <c r="V14" s="18">
+        <v>1</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="1">
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG14" s="9">
+      <c r="AD14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="18">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AY14" s="8">
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AK14" s="18">
+        <v>6</v>
+      </c>
+      <c r="AL14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AM14" s="18">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="18">
+        <v>2</v>
+      </c>
+      <c r="AP14" s="18">
+        <v>5</v>
+      </c>
+      <c r="AQ14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AU14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AV14" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW14" s="18">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="18">
+        <v>3</v>
+      </c>
+      <c r="AY14" s="22">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1">
-        <v>7</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD14" s="13">
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18">
+        <v>7</v>
+      </c>
+      <c r="BB14" s="18">
+        <v>6</v>
+      </c>
+      <c r="BC14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BD14" s="22">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="BE14" s="1">
-        <v>5</v>
-      </c>
-      <c r="BF14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG14" s="13">
+      <c r="BE14" s="18">
+        <v>5</v>
+      </c>
+      <c r="BF14" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG14" s="22">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BH14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI14" s="13">
+      <c r="BH14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BI14" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="BJ14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BK14" s="8">
+      <c r="BJ14" s="18">
+        <v>6</v>
+      </c>
+      <c r="BK14" s="22">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1">
-        <v>4</v>
-      </c>
-      <c r="BN14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP14" s="1">
-        <v>4</v>
-      </c>
-      <c r="BQ14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT14" s="8">
+      <c r="BL14" s="18"/>
+      <c r="BM14" s="18">
+        <v>4</v>
+      </c>
+      <c r="BN14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BO14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BP14" s="18">
+        <v>4</v>
+      </c>
+      <c r="BQ14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BR14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BS14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BT14" s="22">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1">
-        <v>4</v>
-      </c>
-      <c r="BW14" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX14" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY14" s="1">
-        <v>6</v>
-      </c>
-      <c r="BZ14" s="1">
-        <v>3</v>
-      </c>
-      <c r="CA14" s="1">
-        <v>7</v>
-      </c>
-      <c r="CB14" s="1">
-        <v>5</v>
-      </c>
-      <c r="CC14" s="8">
+      <c r="BU14" s="18"/>
+      <c r="BV14" s="18">
+        <v>4</v>
+      </c>
+      <c r="BW14" s="18">
+        <v>2</v>
+      </c>
+      <c r="BX14" s="18">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="18">
+        <v>6</v>
+      </c>
+      <c r="BZ14" s="18">
+        <v>3</v>
+      </c>
+      <c r="CA14" s="18">
+        <v>7</v>
+      </c>
+      <c r="CB14" s="18">
+        <v>5</v>
+      </c>
+      <c r="CC14" s="22">
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF14" s="1">
+      <c r="CD14" s="18"/>
+      <c r="CE14" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="18">
         <v>43</v>
       </c>
-      <c r="CG14" s="1">
+      <c r="CG14" s="18">
         <v>70</v>
       </c>
-      <c r="CH14" s="1">
+      <c r="CH14" s="18">
         <v>147</v>
       </c>
-      <c r="CI14" s="1">
+      <c r="CI14" s="18">
         <v>56</v>
       </c>
-      <c r="CJ14" s="1">
+      <c r="CJ14" s="18">
         <v>45</v>
       </c>
-      <c r="CK14" s="1">
+      <c r="CK14" s="18">
         <v>57</v>
       </c>
-      <c r="CL14" s="1">
+      <c r="CL14" s="18">
         <v>74</v>
       </c>
-      <c r="CM14" s="1">
+      <c r="CM14" s="18">
         <v>66</v>
       </c>
-      <c r="CN14" s="1">
+      <c r="CN14" s="28">
         <v>558</v>
       </c>
-      <c r="CO14" s="3"/>
-      <c r="CP14" s="3">
+      <c r="CO14" s="20"/>
+      <c r="CP14" s="20">
         <v>45412.857060185001</v>
       </c>
-      <c r="CQ14" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR14" s="1">
+      <c r="CQ14" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR14" s="18">
         <v>0</v>
       </c>
-      <c r="CS14" s="1">
+      <c r="CS14" s="18">
         <v>8</v>
       </c>
-      <c r="CT14" s="1">
+      <c r="CT14" s="18">
         <v>8</v>
       </c>
-      <c r="CU14" s="1">
+      <c r="CU14" s="18">
         <v>0</v>
       </c>
-      <c r="CV14" s="1">
+      <c r="CV14" s="18">
         <v>0</v>
       </c>
-      <c r="CW14" s="4">
+      <c r="CW14" s="21">
         <v>0.71</v>
       </c>
     </row>
-    <row r="15" spans="1:101" ht="13">
-      <c r="A15" s="1">
+    <row r="15" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
         <v>85</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="20">
         <v>45414.030972221997</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="18">
         <v>27</v>
       </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="H15" s="18">
+        <v>2</v>
+      </c>
+      <c r="I15" s="18">
+        <v>6</v>
+      </c>
+      <c r="J15" s="18">
+        <v>6</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="21">
         <v>20</v>
       </c>
-      <c r="M15" s="1">
-        <v>2</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1">
-        <v>2</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>5</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>5</v>
-      </c>
-      <c r="W15" s="1">
-        <v>3</v>
-      </c>
-      <c r="X15" s="1">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="9">
+      <c r="M15" s="18">
+        <v>2</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18">
+        <v>2</v>
+      </c>
+      <c r="R15" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="18">
+        <v>5</v>
+      </c>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
+      <c r="U15" s="18">
+        <v>1</v>
+      </c>
+      <c r="V15" s="18">
+        <v>5</v>
+      </c>
+      <c r="W15" s="18">
+        <v>3</v>
+      </c>
+      <c r="X15" s="18">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="1">
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="18">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="18">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="9">
+      <c r="AD15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="18">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>7</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY15" s="8">
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="18">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="18">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="18">
+        <v>3</v>
+      </c>
+      <c r="AM15" s="18">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="18">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="18">
+        <v>7</v>
+      </c>
+      <c r="AP15" s="18">
+        <v>7</v>
+      </c>
+      <c r="AQ15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="18">
+        <v>2</v>
+      </c>
+      <c r="AS15" s="18">
+        <v>7</v>
+      </c>
+      <c r="AT15" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="18">
+        <v>4</v>
+      </c>
+      <c r="AW15" s="18">
+        <v>5</v>
+      </c>
+      <c r="AX15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="22">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BD15" s="13">
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18">
+        <v>6</v>
+      </c>
+      <c r="BB15" s="18">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="18">
+        <v>6</v>
+      </c>
+      <c r="BD15" s="22">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="BE15" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF15" s="1">
-        <v>6</v>
-      </c>
-      <c r="BG15" s="13">
+      <c r="BE15" s="18">
+        <v>4</v>
+      </c>
+      <c r="BF15" s="18">
+        <v>6</v>
+      </c>
+      <c r="BG15" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="BH15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI15" s="13">
+      <c r="BH15" s="18">
+        <v>3</v>
+      </c>
+      <c r="BI15" s="22">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="BJ15" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK15" s="8">
+      <c r="BJ15" s="18">
+        <v>5</v>
+      </c>
+      <c r="BK15" s="22">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO15" s="1">
-        <v>4</v>
-      </c>
-      <c r="BP15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BR15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS15" s="1">
-        <v>5</v>
-      </c>
-      <c r="BT15" s="8">
+      <c r="BL15" s="18"/>
+      <c r="BM15" s="18">
+        <v>2</v>
+      </c>
+      <c r="BN15" s="18">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="18">
+        <v>4</v>
+      </c>
+      <c r="BP15" s="18">
+        <v>3</v>
+      </c>
+      <c r="BQ15" s="18">
+        <v>3</v>
+      </c>
+      <c r="BR15" s="18">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="18">
+        <v>5</v>
+      </c>
+      <c r="BT15" s="22">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ15" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA15" s="1">
-        <v>6</v>
-      </c>
-      <c r="CB15" s="1">
-        <v>3</v>
-      </c>
-      <c r="CC15" s="8">
+      <c r="BU15" s="18"/>
+      <c r="BV15" s="18">
+        <v>7</v>
+      </c>
+      <c r="BW15" s="18">
+        <v>1</v>
+      </c>
+      <c r="BX15" s="18">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="18">
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="18">
+        <v>1</v>
+      </c>
+      <c r="CA15" s="18">
+        <v>6</v>
+      </c>
+      <c r="CB15" s="18">
+        <v>3</v>
+      </c>
+      <c r="CC15" s="22">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF15" s="1">
+      <c r="CD15" s="18"/>
+      <c r="CE15" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="18">
         <v>8</v>
       </c>
-      <c r="CG15" s="1">
+      <c r="CG15" s="18">
         <v>221</v>
       </c>
-      <c r="CH15" s="1">
+      <c r="CH15" s="18">
         <v>130</v>
       </c>
-      <c r="CI15" s="1">
+      <c r="CI15" s="18">
         <v>40</v>
       </c>
-      <c r="CJ15" s="1">
+      <c r="CJ15" s="18">
         <v>50</v>
       </c>
-      <c r="CK15" s="1">
+      <c r="CK15" s="18">
         <v>32</v>
       </c>
-      <c r="CL15" s="1">
+      <c r="CL15" s="18">
         <v>38</v>
       </c>
-      <c r="CM15" s="1">
+      <c r="CM15" s="18">
         <v>66</v>
       </c>
-      <c r="CN15" s="1">
+      <c r="CN15" s="28">
         <v>428</v>
       </c>
-      <c r="CO15" s="3"/>
-      <c r="CP15" s="3">
+      <c r="CO15" s="20"/>
+      <c r="CP15" s="20">
         <v>45414.037743055997</v>
       </c>
-      <c r="CQ15" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR15" s="1">
+      <c r="CQ15" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR15" s="18">
         <v>0</v>
       </c>
-      <c r="CS15" s="1">
+      <c r="CS15" s="18">
         <v>8</v>
       </c>
-      <c r="CT15" s="1">
+      <c r="CT15" s="18">
         <v>8</v>
       </c>
-      <c r="CU15" s="1">
+      <c r="CU15" s="18">
         <v>0</v>
       </c>
-      <c r="CV15" s="1">
+      <c r="CV15" s="18">
         <v>0</v>
       </c>
-      <c r="CW15" s="4">
+      <c r="CW15" s="21">
         <v>0.94</v>
       </c>
     </row>
-    <row r="16" spans="1:101" ht="13">
+    <row r="16" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>86</v>
       </c>
@@ -5729,7 +5762,7 @@
       <c r="CM16" s="1">
         <v>53</v>
       </c>
-      <c r="CN16" s="1">
+      <c r="CN16" s="28">
         <v>373</v>
       </c>
       <c r="CO16" s="3"/>
@@ -5758,7 +5791,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:101" ht="13">
+    <row r="17" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>87</v>
       </c>
@@ -6024,7 +6057,7 @@
       <c r="CM17" s="1">
         <v>262</v>
       </c>
-      <c r="CN17" s="1">
+      <c r="CN17" s="28">
         <v>459</v>
       </c>
       <c r="CO17" s="3"/>
@@ -6053,7 +6086,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:101" ht="13">
+    <row r="18" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>88</v>
       </c>
@@ -6319,7 +6352,7 @@
       <c r="CM18" s="1">
         <v>95</v>
       </c>
-      <c r="CN18" s="1">
+      <c r="CN18" s="28">
         <v>497</v>
       </c>
       <c r="CO18" s="3"/>
@@ -6348,7 +6381,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:101" ht="13">
+    <row r="19" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>89</v>
       </c>
@@ -6614,7 +6647,7 @@
       <c r="CM19" s="1">
         <v>77</v>
       </c>
-      <c r="CN19" s="1">
+      <c r="CN19" s="28">
         <v>692</v>
       </c>
       <c r="CO19" s="3"/>
@@ -6643,302 +6676,302 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="20" spans="1:101" ht="13">
-      <c r="A20" s="1">
+    <row r="20" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>90</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="20">
         <v>45414.411053240998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="18">
         <v>25</v>
       </c>
-      <c r="H20" s="1">
-        <v>2</v>
-      </c>
-      <c r="I20" s="1">
-        <v>6</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="H20" s="18">
+        <v>2</v>
+      </c>
+      <c r="I20" s="18">
+        <v>6</v>
+      </c>
+      <c r="J20" s="18">
+        <v>2</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="21">
         <v>18</v>
       </c>
-      <c r="M20" s="1">
-        <v>2</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1">
-        <v>5</v>
-      </c>
-      <c r="R20" s="1">
-        <v>6</v>
-      </c>
-      <c r="S20" s="1">
-        <v>2</v>
-      </c>
-      <c r="T20" s="1">
-        <v>5</v>
-      </c>
-      <c r="U20" s="1">
-        <v>3</v>
-      </c>
-      <c r="V20" s="1">
-        <v>2</v>
-      </c>
-      <c r="W20" s="1">
-        <v>4</v>
-      </c>
-      <c r="X20" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="9">
+      <c r="M20" s="18">
+        <v>2</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1</v>
+      </c>
+      <c r="O20" s="18">
+        <v>2</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18">
+        <v>5</v>
+      </c>
+      <c r="R20" s="18">
+        <v>6</v>
+      </c>
+      <c r="S20" s="18">
+        <v>2</v>
+      </c>
+      <c r="T20" s="18">
+        <v>5</v>
+      </c>
+      <c r="U20" s="18">
+        <v>3</v>
+      </c>
+      <c r="V20" s="18">
+        <v>2</v>
+      </c>
+      <c r="W20" s="18">
+        <v>4</v>
+      </c>
+      <c r="X20" s="18">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="1">
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG20" s="9">
+      <c r="AD20" s="18">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="18">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="18">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AT20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX20" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY20" s="8">
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AK20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AO20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AP20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AQ20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AR20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AS20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AT20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AU20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AV20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX20" s="18">
+        <v>6</v>
+      </c>
+      <c r="AY20" s="22">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB20" s="1">
-        <v>7</v>
-      </c>
-      <c r="BC20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD20" s="13">
+      <c r="AZ20" s="18"/>
+      <c r="BA20" s="18">
+        <v>6</v>
+      </c>
+      <c r="BB20" s="18">
+        <v>7</v>
+      </c>
+      <c r="BC20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BD20" s="22">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="BE20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BF20" s="1">
-        <v>5</v>
-      </c>
-      <c r="BG20" s="13">
+      <c r="BE20" s="18">
+        <v>3</v>
+      </c>
+      <c r="BF20" s="18">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BH20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI20" s="13">
+      <c r="BH20" s="18">
+        <v>3</v>
+      </c>
+      <c r="BI20" s="22">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="BJ20" s="1">
-        <v>6</v>
-      </c>
-      <c r="BK20" s="8">
+      <c r="BJ20" s="18">
+        <v>6</v>
+      </c>
+      <c r="BK20" s="22">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BQ20" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS20" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT20" s="8">
+      <c r="BL20" s="18"/>
+      <c r="BM20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BN20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BO20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BP20" s="18">
+        <v>3</v>
+      </c>
+      <c r="BQ20" s="18">
+        <v>1</v>
+      </c>
+      <c r="BR20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BS20" s="18">
+        <v>2</v>
+      </c>
+      <c r="BT20" s="22">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="BU20" s="1"/>
-      <c r="BV20" s="1">
-        <v>3</v>
-      </c>
-      <c r="BW20" s="1">
-        <v>4</v>
-      </c>
-      <c r="BX20" s="1">
-        <v>5</v>
-      </c>
-      <c r="BY20" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ20" s="1">
-        <v>3</v>
-      </c>
-      <c r="CA20" s="1">
-        <v>6</v>
-      </c>
-      <c r="CB20" s="1">
-        <v>7</v>
-      </c>
-      <c r="CC20" s="8">
+      <c r="BU20" s="18"/>
+      <c r="BV20" s="18">
+        <v>3</v>
+      </c>
+      <c r="BW20" s="18">
+        <v>4</v>
+      </c>
+      <c r="BX20" s="18">
+        <v>5</v>
+      </c>
+      <c r="BY20" s="18">
+        <v>4</v>
+      </c>
+      <c r="BZ20" s="18">
+        <v>3</v>
+      </c>
+      <c r="CA20" s="18">
+        <v>6</v>
+      </c>
+      <c r="CB20" s="18">
+        <v>7</v>
+      </c>
+      <c r="CC20" s="22">
         <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="CD20" s="1"/>
-      <c r="CE20" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF20" s="1">
-        <v>7</v>
-      </c>
-      <c r="CG20" s="1">
+      <c r="CD20" s="18"/>
+      <c r="CE20" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF20" s="18">
+        <v>7</v>
+      </c>
+      <c r="CG20" s="18">
         <v>62</v>
       </c>
-      <c r="CH20" s="1">
+      <c r="CH20" s="18">
         <v>59</v>
       </c>
-      <c r="CI20" s="1">
+      <c r="CI20" s="18">
         <v>33</v>
       </c>
-      <c r="CJ20" s="1">
+      <c r="CJ20" s="18">
         <v>42</v>
       </c>
-      <c r="CK20" s="1">
+      <c r="CK20" s="18">
         <v>21</v>
       </c>
-      <c r="CL20" s="1">
+      <c r="CL20" s="18">
         <v>28</v>
       </c>
-      <c r="CM20" s="1">
+      <c r="CM20" s="18">
         <v>42</v>
       </c>
-      <c r="CN20" s="1">
+      <c r="CN20" s="28">
         <v>294</v>
       </c>
-      <c r="CO20" s="3"/>
-      <c r="CP20" s="3">
+      <c r="CO20" s="20"/>
+      <c r="CP20" s="20">
         <v>45414.414456019003</v>
       </c>
-      <c r="CQ20" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR20" s="1">
+      <c r="CQ20" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR20" s="18">
         <v>0</v>
       </c>
-      <c r="CS20" s="1">
+      <c r="CS20" s="18">
         <v>8</v>
       </c>
-      <c r="CT20" s="1">
+      <c r="CT20" s="18">
         <v>8</v>
       </c>
-      <c r="CU20" s="1">
+      <c r="CU20" s="18">
         <v>0</v>
       </c>
-      <c r="CV20" s="1">
+      <c r="CV20" s="18">
         <v>0</v>
       </c>
-      <c r="CW20" s="4">
+      <c r="CW20" s="21">
         <v>1.41</v>
       </c>
     </row>
-    <row r="21" spans="1:101" ht="13">
+    <row r="21" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>93</v>
       </c>
@@ -7204,7 +7237,7 @@
       <c r="CM21" s="1">
         <v>104</v>
       </c>
-      <c r="CN21" s="1">
+      <c r="CN21" s="28">
         <v>605</v>
       </c>
       <c r="CO21" s="3"/>
@@ -7233,302 +7266,302 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="22" spans="1:101" ht="13">
-      <c r="A22" s="1">
+    <row r="22" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>99</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="20">
         <v>45414.623888889</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="18">
         <v>23</v>
       </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>6</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>2</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="H22" s="18">
+        <v>2</v>
+      </c>
+      <c r="I22" s="18">
+        <v>6</v>
+      </c>
+      <c r="J22" s="18">
+        <v>2</v>
+      </c>
+      <c r="K22" s="18">
+        <v>2</v>
+      </c>
+      <c r="L22" s="21">
         <v>15</v>
       </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1">
-        <v>3</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1">
-        <v>1</v>
-      </c>
-      <c r="R22" s="1">
-        <v>1</v>
-      </c>
-      <c r="S22" s="1">
-        <v>3</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1">
-        <v>2</v>
-      </c>
-      <c r="V22" s="1">
-        <v>3</v>
-      </c>
-      <c r="W22" s="1">
-        <v>3</v>
-      </c>
-      <c r="X22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="9">
+      <c r="M22" s="18">
+        <v>1</v>
+      </c>
+      <c r="N22" s="18">
+        <v>1</v>
+      </c>
+      <c r="O22" s="18">
+        <v>3</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18">
+        <v>1</v>
+      </c>
+      <c r="R22" s="18">
+        <v>1</v>
+      </c>
+      <c r="S22" s="18">
+        <v>3</v>
+      </c>
+      <c r="T22" s="18">
+        <v>1</v>
+      </c>
+      <c r="U22" s="18">
+        <v>2</v>
+      </c>
+      <c r="V22" s="18">
+        <v>3</v>
+      </c>
+      <c r="W22" s="18">
+        <v>3</v>
+      </c>
+      <c r="X22" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="1">
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AD22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG22" s="9">
+      <c r="AD22" s="18">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="18">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1">
-        <v>7</v>
-      </c>
-      <c r="AJ22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK22" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AU22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AV22" s="1">
-        <v>7</v>
-      </c>
-      <c r="AW22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX22" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY22" s="8">
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18">
+        <v>7</v>
+      </c>
+      <c r="AJ22" s="18">
+        <v>6</v>
+      </c>
+      <c r="AK22" s="18">
+        <v>7</v>
+      </c>
+      <c r="AL22" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM22" s="18">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="18">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="18">
+        <v>6</v>
+      </c>
+      <c r="AR22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AS22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AT22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AU22" s="18">
+        <v>4</v>
+      </c>
+      <c r="AV22" s="18">
+        <v>7</v>
+      </c>
+      <c r="AW22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AX22" s="18">
+        <v>5</v>
+      </c>
+      <c r="AY22" s="22">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1">
-        <v>7</v>
-      </c>
-      <c r="BB22" s="1">
-        <v>7</v>
-      </c>
-      <c r="BC22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="13">
+      <c r="AZ22" s="18"/>
+      <c r="BA22" s="18">
+        <v>7</v>
+      </c>
+      <c r="BB22" s="18">
+        <v>7</v>
+      </c>
+      <c r="BC22" s="18">
+        <v>1</v>
+      </c>
+      <c r="BD22" s="22">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="BE22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="13">
+      <c r="BE22" s="18">
+        <v>4</v>
+      </c>
+      <c r="BF22" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="22">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BH22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI22" s="13">
+      <c r="BH22" s="18">
+        <v>2</v>
+      </c>
+      <c r="BI22" s="22">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="BJ22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BK22" s="8">
+      <c r="BJ22" s="18">
+        <v>6</v>
+      </c>
+      <c r="BK22" s="22">
         <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1">
-        <v>3</v>
-      </c>
-      <c r="BN22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP22" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BR22" s="1">
-        <v>4</v>
-      </c>
-      <c r="BS22" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="8">
+      <c r="BL22" s="18"/>
+      <c r="BM22" s="18">
+        <v>3</v>
+      </c>
+      <c r="BN22" s="18">
+        <v>2</v>
+      </c>
+      <c r="BO22" s="18">
+        <v>2</v>
+      </c>
+      <c r="BP22" s="18">
+        <v>2</v>
+      </c>
+      <c r="BQ22" s="18">
+        <v>4</v>
+      </c>
+      <c r="BR22" s="18">
+        <v>4</v>
+      </c>
+      <c r="BS22" s="18">
+        <v>1</v>
+      </c>
+      <c r="BT22" s="22">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="BU22" s="1"/>
-      <c r="BV22" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW22" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX22" s="1">
-        <v>7</v>
-      </c>
-      <c r="BY22" s="1">
-        <v>7</v>
-      </c>
-      <c r="BZ22" s="1">
-        <v>4</v>
-      </c>
-      <c r="CA22" s="1">
-        <v>7</v>
-      </c>
-      <c r="CB22" s="1">
-        <v>7</v>
-      </c>
-      <c r="CC22" s="8">
+      <c r="BU22" s="18"/>
+      <c r="BV22" s="18">
+        <v>6</v>
+      </c>
+      <c r="BW22" s="18">
+        <v>5</v>
+      </c>
+      <c r="BX22" s="18">
+        <v>7</v>
+      </c>
+      <c r="BY22" s="18">
+        <v>7</v>
+      </c>
+      <c r="BZ22" s="18">
+        <v>4</v>
+      </c>
+      <c r="CA22" s="18">
+        <v>7</v>
+      </c>
+      <c r="CB22" s="18">
+        <v>7</v>
+      </c>
+      <c r="CC22" s="22">
         <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="CD22" s="1"/>
-      <c r="CE22" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF22" s="1">
+      <c r="CD22" s="18"/>
+      <c r="CE22" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF22" s="18">
         <v>8</v>
       </c>
-      <c r="CG22" s="1">
+      <c r="CG22" s="18">
         <v>56</v>
       </c>
-      <c r="CH22" s="1">
+      <c r="CH22" s="18">
         <v>106</v>
       </c>
-      <c r="CI22" s="1">
+      <c r="CI22" s="18">
         <v>52</v>
       </c>
-      <c r="CJ22" s="1">
+      <c r="CJ22" s="18">
         <v>35</v>
       </c>
-      <c r="CK22" s="1">
+      <c r="CK22" s="18">
         <v>24</v>
       </c>
-      <c r="CL22" s="1">
+      <c r="CL22" s="18">
         <v>36</v>
       </c>
-      <c r="CM22" s="1">
+      <c r="CM22" s="18">
         <v>50</v>
       </c>
-      <c r="CN22" s="1">
+      <c r="CN22" s="28">
         <v>367</v>
       </c>
-      <c r="CO22" s="3"/>
-      <c r="CP22" s="3">
+      <c r="CO22" s="20"/>
+      <c r="CP22" s="20">
         <v>45414.628136574</v>
       </c>
-      <c r="CQ22" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR22" s="1">
+      <c r="CQ22" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR22" s="18">
         <v>0</v>
       </c>
-      <c r="CS22" s="1">
+      <c r="CS22" s="18">
         <v>8</v>
       </c>
-      <c r="CT22" s="1">
+      <c r="CT22" s="18">
         <v>8</v>
       </c>
-      <c r="CU22" s="1">
+      <c r="CU22" s="18">
         <v>0</v>
       </c>
-      <c r="CV22" s="1">
+      <c r="CV22" s="18">
         <v>0</v>
       </c>
-      <c r="CW22" s="4">
+      <c r="CW22" s="21">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:101" ht="13">
+    <row r="23" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>104</v>
       </c>
@@ -7794,7 +7827,7 @@
       <c r="CM23" s="1">
         <v>46</v>
       </c>
-      <c r="CN23" s="1">
+      <c r="CN23" s="28">
         <v>540</v>
       </c>
       <c r="CO23" s="3"/>
@@ -7823,7 +7856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:101" ht="13">
+    <row r="24" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>105</v>
       </c>
@@ -8089,7 +8122,7 @@
       <c r="CM24" s="1">
         <v>38</v>
       </c>
-      <c r="CN24" s="1">
+      <c r="CN24" s="28">
         <v>498</v>
       </c>
       <c r="CO24" s="3"/>
@@ -8118,7 +8151,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="25" spans="1:101" ht="13">
+    <row r="25" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>112</v>
       </c>
@@ -8384,7 +8417,7 @@
       <c r="CM25" s="1">
         <v>54</v>
       </c>
-      <c r="CN25" s="1">
+      <c r="CN25" s="28">
         <v>539</v>
       </c>
       <c r="CO25" s="3"/>
@@ -8413,302 +8446,302 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="26" spans="1:101" ht="13">
-      <c r="A26" s="1">
+    <row r="26" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>113</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="20">
         <v>45416.421979166997</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="18">
         <v>54</v>
       </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
         <v>8</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="18">
         <v>25</v>
       </c>
-      <c r="K26" s="1">
-        <v>2</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" s="18">
+        <v>2</v>
+      </c>
+      <c r="L26" s="21">
         <v>43</v>
       </c>
-      <c r="M26" s="1">
-        <v>5</v>
-      </c>
-      <c r="N26" s="1">
-        <v>4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>2</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1">
-        <v>3</v>
-      </c>
-      <c r="R26" s="1">
-        <v>6</v>
-      </c>
-      <c r="S26" s="1">
-        <v>2</v>
-      </c>
-      <c r="T26" s="1">
-        <v>6</v>
-      </c>
-      <c r="U26" s="1">
-        <v>2</v>
-      </c>
-      <c r="V26" s="1">
-        <v>2</v>
-      </c>
-      <c r="W26" s="1">
-        <v>2</v>
-      </c>
-      <c r="X26" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="9">
+      <c r="M26" s="18">
+        <v>5</v>
+      </c>
+      <c r="N26" s="18">
+        <v>4</v>
+      </c>
+      <c r="O26" s="18">
+        <v>2</v>
+      </c>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18">
+        <v>3</v>
+      </c>
+      <c r="R26" s="18">
+        <v>6</v>
+      </c>
+      <c r="S26" s="18">
+        <v>2</v>
+      </c>
+      <c r="T26" s="18">
+        <v>6</v>
+      </c>
+      <c r="U26" s="18">
+        <v>2</v>
+      </c>
+      <c r="V26" s="18">
+        <v>2</v>
+      </c>
+      <c r="W26" s="18">
+        <v>2</v>
+      </c>
+      <c r="X26" s="18">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="18">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC26" s="1">
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE26" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG26" s="9">
+      <c r="AD26" s="18">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF26" s="18">
+        <v>5</v>
+      </c>
+      <c r="AG26" s="18">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AM26" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AO26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AT26" s="1">
-        <v>7</v>
-      </c>
-      <c r="AU26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AV26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX26" s="1">
-        <v>6</v>
-      </c>
-      <c r="AY26" s="8">
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AK26" s="18">
+        <v>7</v>
+      </c>
+      <c r="AL26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="18">
+        <v>5</v>
+      </c>
+      <c r="AN26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AP26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AQ26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AR26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AS26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AT26" s="18">
+        <v>7</v>
+      </c>
+      <c r="AU26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AV26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AW26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX26" s="18">
+        <v>6</v>
+      </c>
+      <c r="AY26" s="22">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="AZ26" s="1"/>
-      <c r="BA26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB26" s="1">
-        <v>7</v>
-      </c>
-      <c r="BC26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD26" s="13">
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18">
+        <v>6</v>
+      </c>
+      <c r="BB26" s="18">
+        <v>7</v>
+      </c>
+      <c r="BC26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="22">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="BE26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BF26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BG26" s="13">
+      <c r="BE26" s="18">
+        <v>6</v>
+      </c>
+      <c r="BF26" s="18">
+        <v>5</v>
+      </c>
+      <c r="BG26" s="22">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="BH26" s="1">
-        <v>3</v>
-      </c>
-      <c r="BI26" s="13">
+      <c r="BH26" s="18">
+        <v>3</v>
+      </c>
+      <c r="BI26" s="22">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="BJ26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BK26" s="8">
+      <c r="BJ26" s="18">
+        <v>6</v>
+      </c>
+      <c r="BK26" s="22">
         <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="BL26" s="1"/>
-      <c r="BM26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN26" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS26" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT26" s="8">
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BN26" s="18">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BP26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BQ26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BR26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BS26" s="18">
+        <v>2</v>
+      </c>
+      <c r="BT26" s="22">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="BU26" s="1"/>
-      <c r="BV26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW26" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX26" s="1">
-        <v>6</v>
-      </c>
-      <c r="BY26" s="1">
-        <v>4</v>
-      </c>
-      <c r="BZ26" s="1">
-        <v>3</v>
-      </c>
-      <c r="CA26" s="1">
-        <v>6</v>
-      </c>
-      <c r="CB26" s="1">
-        <v>6</v>
-      </c>
-      <c r="CC26" s="8">
+      <c r="BU26" s="18"/>
+      <c r="BV26" s="18">
+        <v>6</v>
+      </c>
+      <c r="BW26" s="18">
+        <v>5</v>
+      </c>
+      <c r="BX26" s="18">
+        <v>6</v>
+      </c>
+      <c r="BY26" s="18">
+        <v>4</v>
+      </c>
+      <c r="BZ26" s="18">
+        <v>3</v>
+      </c>
+      <c r="CA26" s="18">
+        <v>6</v>
+      </c>
+      <c r="CB26" s="18">
+        <v>6</v>
+      </c>
+      <c r="CC26" s="22">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
-      <c r="CD26" s="1"/>
-      <c r="CE26" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF26" s="1">
+      <c r="CD26" s="18"/>
+      <c r="CE26" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF26" s="18">
         <v>17</v>
       </c>
-      <c r="CG26" s="1">
+      <c r="CG26" s="18">
         <v>94</v>
       </c>
-      <c r="CH26" s="1">
+      <c r="CH26" s="18">
         <v>477</v>
       </c>
-      <c r="CI26" s="1">
+      <c r="CI26" s="18">
         <v>90</v>
       </c>
-      <c r="CJ26" s="1">
+      <c r="CJ26" s="18">
         <v>68</v>
       </c>
-      <c r="CK26" s="1">
+      <c r="CK26" s="18">
         <v>58</v>
       </c>
-      <c r="CL26" s="1">
+      <c r="CL26" s="18">
         <v>51</v>
       </c>
-      <c r="CM26" s="1">
+      <c r="CM26" s="18">
         <v>136</v>
       </c>
-      <c r="CN26" s="1">
+      <c r="CN26" s="28">
         <v>549</v>
       </c>
-      <c r="CO26" s="3"/>
-      <c r="CP26" s="3">
+      <c r="CO26" s="20"/>
+      <c r="CP26" s="20">
         <v>45416.433449074</v>
       </c>
-      <c r="CQ26" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR26" s="1">
+      <c r="CQ26" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR26" s="18">
         <v>0</v>
       </c>
-      <c r="CS26" s="1">
+      <c r="CS26" s="18">
         <v>8</v>
       </c>
-      <c r="CT26" s="1">
+      <c r="CT26" s="18">
         <v>8</v>
       </c>
-      <c r="CU26" s="1">
+      <c r="CU26" s="18">
         <v>0</v>
       </c>
-      <c r="CV26" s="1">
+      <c r="CV26" s="18">
         <v>0</v>
       </c>
-      <c r="CW26" s="4">
+      <c r="CW26" s="21">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:101" ht="13">
+    <row r="27" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>117</v>
       </c>
@@ -8956,7 +8989,7 @@
       <c r="CM27" s="1">
         <v>115939</v>
       </c>
-      <c r="CN27" s="1">
+      <c r="CN27" s="28">
         <v>126</v>
       </c>
       <c r="CO27" s="3"/>
@@ -8985,302 +9018,302 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="28" spans="1:101" ht="13">
-      <c r="A28" s="1">
+    <row r="28" spans="1:101" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>119</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="20">
         <v>45416.492453703999</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="18">
         <v>24</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>6</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>6</v>
+      </c>
+      <c r="J28" s="18">
+        <v>2</v>
+      </c>
+      <c r="K28" s="18">
+        <v>2</v>
+      </c>
+      <c r="L28" s="21">
         <v>10</v>
       </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1">
-        <v>1</v>
-      </c>
-      <c r="S28" s="1">
-        <v>1</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1">
-        <v>1</v>
-      </c>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="9">
+      <c r="M28" s="18">
+        <v>1</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1</v>
+      </c>
+      <c r="O28" s="18">
+        <v>1</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18">
+        <v>1</v>
+      </c>
+      <c r="R28" s="18">
+        <v>1</v>
+      </c>
+      <c r="S28" s="18">
+        <v>1</v>
+      </c>
+      <c r="T28" s="18">
+        <v>1</v>
+      </c>
+      <c r="U28" s="18">
+        <v>1</v>
+      </c>
+      <c r="V28" s="18">
+        <v>1</v>
+      </c>
+      <c r="W28" s="18">
+        <v>1</v>
+      </c>
+      <c r="X28" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="1">
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="18">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="18">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE28" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF28" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG28" s="9">
+      <c r="AD28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF28" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="18">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AN28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO28" s="1">
-        <v>7</v>
-      </c>
-      <c r="AP28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AS28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AT28" s="1">
-        <v>4</v>
-      </c>
-      <c r="AU28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AV28" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW28" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX28" s="1">
-        <v>3</v>
-      </c>
-      <c r="AY28" s="8">
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="18">
+        <v>5</v>
+      </c>
+      <c r="AK28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AL28" s="18">
+        <v>5</v>
+      </c>
+      <c r="AM28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AN28" s="18">
+        <v>5</v>
+      </c>
+      <c r="AO28" s="18">
+        <v>7</v>
+      </c>
+      <c r="AP28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AQ28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AR28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AS28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT28" s="18">
+        <v>4</v>
+      </c>
+      <c r="AU28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AV28" s="18">
+        <v>5</v>
+      </c>
+      <c r="AW28" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX28" s="18">
+        <v>3</v>
+      </c>
+      <c r="AY28" s="22">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1">
-        <v>6</v>
-      </c>
-      <c r="BB28" s="1">
-        <v>7</v>
-      </c>
-      <c r="BC28" s="1">
-        <v>3</v>
-      </c>
-      <c r="BD28" s="13">
+      <c r="AZ28" s="18"/>
+      <c r="BA28" s="18">
+        <v>6</v>
+      </c>
+      <c r="BB28" s="18">
+        <v>7</v>
+      </c>
+      <c r="BC28" s="18">
+        <v>3</v>
+      </c>
+      <c r="BD28" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BE28" s="1">
-        <v>5</v>
-      </c>
-      <c r="BF28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG28" s="13">
+      <c r="BE28" s="18">
+        <v>5</v>
+      </c>
+      <c r="BF28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BG28" s="22">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="BH28" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="13">
+      <c r="BH28" s="18">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="22">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="BJ28" s="1">
-        <v>6</v>
-      </c>
-      <c r="BK28" s="8">
+      <c r="BJ28" s="18">
+        <v>6</v>
+      </c>
+      <c r="BK28" s="22">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="BL28" s="1"/>
-      <c r="BM28" s="1">
-        <v>5</v>
-      </c>
-      <c r="BN28" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO28" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP28" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ28" s="1">
-        <v>4</v>
-      </c>
-      <c r="BR28" s="1">
-        <v>4</v>
-      </c>
-      <c r="BS28" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT28" s="8">
+      <c r="BL28" s="18"/>
+      <c r="BM28" s="18">
+        <v>5</v>
+      </c>
+      <c r="BN28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BO28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BP28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BQ28" s="18">
+        <v>4</v>
+      </c>
+      <c r="BR28" s="18">
+        <v>4</v>
+      </c>
+      <c r="BS28" s="18">
+        <v>2</v>
+      </c>
+      <c r="BT28" s="22">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="BU28" s="1"/>
-      <c r="BV28" s="1">
-        <v>7</v>
-      </c>
-      <c r="BW28" s="1">
-        <v>5</v>
-      </c>
-      <c r="BX28" s="1">
-        <v>5</v>
-      </c>
-      <c r="BY28" s="1">
-        <v>5</v>
-      </c>
-      <c r="BZ28" s="1">
-        <v>2</v>
-      </c>
-      <c r="CA28" s="1">
-        <v>5</v>
-      </c>
-      <c r="CB28" s="1">
-        <v>5</v>
-      </c>
-      <c r="CC28" s="8">
+      <c r="BU28" s="18"/>
+      <c r="BV28" s="18">
+        <v>7</v>
+      </c>
+      <c r="BW28" s="18">
+        <v>5</v>
+      </c>
+      <c r="BX28" s="18">
+        <v>5</v>
+      </c>
+      <c r="BY28" s="18">
+        <v>5</v>
+      </c>
+      <c r="BZ28" s="18">
+        <v>2</v>
+      </c>
+      <c r="CA28" s="18">
+        <v>5</v>
+      </c>
+      <c r="CB28" s="18">
+        <v>5</v>
+      </c>
+      <c r="CC28" s="22">
         <f t="shared" si="9"/>
         <v>34</v>
       </c>
-      <c r="CD28" s="1"/>
-      <c r="CE28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CF28" s="1">
+      <c r="CD28" s="18"/>
+      <c r="CE28" s="18">
+        <v>1</v>
+      </c>
+      <c r="CF28" s="18">
         <v>34</v>
       </c>
-      <c r="CG28" s="1">
+      <c r="CG28" s="18">
         <v>156</v>
       </c>
-      <c r="CH28" s="1">
+      <c r="CH28" s="18">
         <v>103</v>
       </c>
-      <c r="CI28" s="1">
+      <c r="CI28" s="18">
         <v>36</v>
       </c>
-      <c r="CJ28" s="1">
+      <c r="CJ28" s="18">
         <v>62</v>
       </c>
-      <c r="CK28" s="1">
+      <c r="CK28" s="18">
         <v>40</v>
       </c>
-      <c r="CL28" s="1">
+      <c r="CL28" s="18">
         <v>53</v>
       </c>
-      <c r="CM28" s="1">
+      <c r="CM28" s="18">
         <v>82</v>
       </c>
-      <c r="CN28" s="1">
+      <c r="CN28" s="28">
         <v>566</v>
       </c>
-      <c r="CO28" s="3"/>
-      <c r="CP28" s="3">
+      <c r="CO28" s="20"/>
+      <c r="CP28" s="20">
         <v>45416.499004630001</v>
       </c>
-      <c r="CQ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR28" s="1">
+      <c r="CQ28" s="18">
+        <v>1</v>
+      </c>
+      <c r="CR28" s="18">
         <v>0</v>
       </c>
-      <c r="CS28" s="1">
+      <c r="CS28" s="18">
         <v>8</v>
       </c>
-      <c r="CT28" s="1">
+      <c r="CT28" s="18">
         <v>8</v>
       </c>
-      <c r="CU28" s="1">
+      <c r="CU28" s="18">
         <v>0</v>
       </c>
-      <c r="CV28" s="1">
+      <c r="CV28" s="18">
         <v>0</v>
       </c>
-      <c r="CW28" s="4">
+      <c r="CW28" s="21">
         <v>0.76</v>
       </c>
     </row>
-    <row r="29" spans="1:101" ht="13">
+    <row r="29" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>121</v>
       </c>
@@ -9546,7 +9579,7 @@
       <c r="CM29" s="1">
         <v>32</v>
       </c>
-      <c r="CN29" s="1">
+      <c r="CN29" s="28">
         <v>290</v>
       </c>
       <c r="CO29" s="3"/>
@@ -9575,7 +9608,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:101" ht="13">
+    <row r="30" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>123</v>
       </c>
@@ -9841,7 +9874,7 @@
       <c r="CM30" s="1">
         <v>73</v>
       </c>
-      <c r="CN30" s="1">
+      <c r="CN30" s="28">
         <v>612</v>
       </c>
       <c r="CO30" s="3"/>
@@ -9870,7 +9903,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="31" spans="1:101" ht="13">
+    <row r="31" spans="1:101" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>125</v>
       </c>
@@ -10136,7 +10169,7 @@
       <c r="CM31" s="1">
         <v>32</v>
       </c>
-      <c r="CN31" s="1">
+      <c r="CN31" s="28">
         <v>311</v>
       </c>
       <c r="CO31" s="3"/>
@@ -10165,7 +10198,11 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="32" spans="1:101" ht="13">
+    <row r="32" spans="1:101" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="30">
+        <f>COUNTA(H3:H31)</f>
+        <v>28</v>
+      </c>
       <c r="Q32" s="5">
         <f>_xlfn.VAR.S(Q3:Q31)</f>
         <v>3.2192118226600974</v>
@@ -10371,7 +10408,7 @@
         <v>2.0418719211822665</v>
       </c>
       <c r="BT32" s="7">
-        <f t="shared" si="14"/>
+        <f>_xlfn.VAR.S(BT3:BT31)</f>
         <v>21.423645320197075</v>
       </c>
       <c r="BV32" s="5">
@@ -10406,10 +10443,29 @@
         <f t="shared" si="15"/>
         <v>56.293447293447358</v>
       </c>
-      <c r="CD32" s="14"/>
-      <c r="CE32" s="14"/>
+      <c r="CN32" s="28">
+        <f>AVERAGE(CN3:CN31)</f>
+        <v>450.55172413793105</v>
+      </c>
     </row>
-    <row r="34" spans="17:76" ht="13">
+    <row r="33" spans="7:92" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CN33" s="29">
+        <f>CN32/60</f>
+        <v>7.5091954022988512</v>
+      </c>
+    </row>
+    <row r="34" spans="7:92" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="31">
+        <v>1</v>
+      </c>
+      <c r="H34" s="32">
+        <f>COUNTIF(H3:H31,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I34" s="33">
+        <f>H34/H32*100</f>
+        <v>21.428571428571427</v>
+      </c>
       <c r="Q34">
         <f>SUM(Q32:X32)</f>
         <v>23.71182266009852</v>
@@ -10459,11 +10515,140 @@
         <v>0.73682035190714834</v>
       </c>
     </row>
-    <row r="35" spans="17:76">
+    <row r="35" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="G35" s="31">
+        <v>2</v>
+      </c>
+      <c r="H35" s="32">
+        <f>COUNTIF(H3:H31,2)</f>
+        <v>22</v>
+      </c>
+      <c r="I35" s="33">
+        <f>H35/H32*100</f>
+        <v>78.571428571428569</v>
+      </c>
       <c r="AA35">
         <f>AA32+AD32+AE32+AF32</f>
         <v>6.7684729064039413</v>
       </c>
+      <c r="BM35">
+        <f>SUM(BM32:BS32)-BQ32</f>
+        <v>8.6576354679802954</v>
+      </c>
+      <c r="BO35" s="10">
+        <f>(7/(7-1)*(1-(BM35/BT32)))</f>
+        <v>0.69519812983827767</v>
+      </c>
+    </row>
+    <row r="39" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM39" s="23"/>
+      <c r="BN39" s="23"/>
+      <c r="BO39" s="23"/>
+      <c r="BP39" s="23"/>
+      <c r="BQ39" s="23"/>
+      <c r="BR39" s="23"/>
+      <c r="BS39" s="23"/>
+      <c r="BT39" s="24"/>
+    </row>
+    <row r="40" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM40" s="23"/>
+      <c r="BN40" s="23"/>
+      <c r="BO40" s="23"/>
+      <c r="BP40" s="23"/>
+      <c r="BQ40" s="23"/>
+      <c r="BR40" s="23"/>
+      <c r="BS40" s="23"/>
+      <c r="BT40" s="24"/>
+    </row>
+    <row r="41" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM41" s="23"/>
+      <c r="BN41" s="23"/>
+      <c r="BO41" s="23"/>
+      <c r="BP41" s="23"/>
+      <c r="BQ41" s="23"/>
+      <c r="BR41" s="23"/>
+      <c r="BS41" s="23"/>
+      <c r="BT41" s="24"/>
+    </row>
+    <row r="42" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM42" s="23"/>
+      <c r="BN42" s="23"/>
+      <c r="BO42" s="23"/>
+      <c r="BP42" s="23"/>
+      <c r="BQ42" s="23"/>
+      <c r="BR42" s="23"/>
+      <c r="BS42" s="23"/>
+      <c r="BT42" s="24"/>
+    </row>
+    <row r="43" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM43" s="23"/>
+      <c r="BN43" s="23"/>
+      <c r="BO43" s="23"/>
+      <c r="BP43" s="23"/>
+      <c r="BQ43" s="23"/>
+      <c r="BR43" s="23"/>
+      <c r="BS43" s="23"/>
+      <c r="BT43" s="24"/>
+    </row>
+    <row r="44" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM44" s="23"/>
+      <c r="BN44" s="23"/>
+      <c r="BO44" s="23"/>
+      <c r="BP44" s="23"/>
+      <c r="BQ44" s="23"/>
+      <c r="BR44" s="23"/>
+      <c r="BS44" s="23"/>
+      <c r="BT44" s="24"/>
+    </row>
+    <row r="45" spans="7:92" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM45" s="23"/>
+      <c r="BN45" s="23"/>
+      <c r="BO45" s="23"/>
+      <c r="BP45" s="23"/>
+      <c r="BQ45" s="23"/>
+      <c r="BR45" s="23"/>
+      <c r="BS45" s="23"/>
+      <c r="BT45" s="24"/>
+    </row>
+    <row r="46" spans="7:92" x14ac:dyDescent="0.25">
+      <c r="BM46" s="25"/>
+      <c r="BN46" s="25"/>
+      <c r="BO46" s="25"/>
+      <c r="BP46" s="25"/>
+      <c r="BQ46" s="25"/>
+      <c r="BR46" s="25"/>
+      <c r="BS46" s="25"/>
+      <c r="BT46" s="25"/>
+    </row>
+    <row r="47" spans="7:92" x14ac:dyDescent="0.25">
+      <c r="BM47" s="25"/>
+      <c r="BN47" s="25"/>
+      <c r="BO47" s="25"/>
+      <c r="BP47" s="25"/>
+      <c r="BQ47" s="25"/>
+      <c r="BR47" s="25"/>
+      <c r="BS47" s="25"/>
+      <c r="BT47" s="25"/>
+    </row>
+    <row r="48" spans="7:92" x14ac:dyDescent="0.25">
+      <c r="BM48" s="25"/>
+      <c r="BN48" s="25"/>
+      <c r="BO48" s="25"/>
+      <c r="BP48" s="25"/>
+      <c r="BQ48" s="25"/>
+      <c r="BR48" s="25"/>
+      <c r="BS48" s="25"/>
+      <c r="BT48" s="25"/>
+    </row>
+    <row r="49" spans="65:72" ht="13" x14ac:dyDescent="0.3">
+      <c r="BM49" s="25"/>
+      <c r="BN49" s="25"/>
+      <c r="BO49" s="26"/>
+      <c r="BP49" s="25"/>
+      <c r="BQ49" s="25"/>
+      <c r="BR49" s="25"/>
+      <c r="BS49" s="25"/>
+      <c r="BT49" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10480,17 +10665,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -10498,11 +10683,11 @@
         <f>Angewandte_PsychologiePre!S34</f>
         <v>0.80369913686806393</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -10510,11 +10695,11 @@
         <f>Angewandte_PsychologiePre!AD34</f>
         <v>0.81029185867895526</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -10526,7 +10711,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -10534,11 +10719,11 @@
         <f>Angewandte_PsychologiePre!BD34</f>
         <v>0.77825603185757808</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -10546,11 +10731,11 @@
         <f>Angewandte_PsychologiePre!BO34</f>
         <v>0.61485398942285663</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -10558,7 +10743,7 @@
         <f>Angewandte_PsychologiePre!BX34</f>
         <v>0.73682035190714834</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>183</v>
       </c>
     </row>
